--- a/development/database/excel/reward.xlsx
+++ b/development/database/excel/reward.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="179">
   <si>
     <t>奖励编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -720,6 +720,18 @@
   </si>
   <si>
     <t>[[1,1150001,1,1][1,1250001,1,1][1,1350001,1,1][2,61203,1,1][2,35009,20,1][2,35013,20,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[2,21101,99,1][2,21201,99,1][2,23001,1,1][2,20001,2,1][2,40000,5,1][2,25004,1,1]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1140,13 +1152,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2855,6 +2867,46 @@
       </c>
       <c r="F85" s="1" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>2110</v>
+      </c>
+      <c r="B86" s="1">
+        <v>20</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>2111</v>
+      </c>
+      <c r="B87" s="1">
+        <v>20</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
